--- a/中期_简单回归/data/04-09.xlsx
+++ b/中期_简单回归/data/04-09.xlsx
@@ -281,8 +281,8 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
   </numFmts>
@@ -328,6 +328,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -344,23 +358,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,7 +396,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,13 +443,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,36 +471,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -482,6 +482,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,13 +565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,19 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,19 +619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,97 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,30 +678,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -723,8 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +710,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,27 +778,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,7 +1282,7 @@
   <sheetPr/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A69" sqref="$A69:$XFD69"/>
     </sheetView>
   </sheetViews>
@@ -1304,13 +1304,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1364,13 +1364,13 @@
         <v>1.0750547826087</v>
       </c>
       <c r="D2" s="6">
-        <v>1.06014989473684</v>
+        <v>1.03237282608696</v>
       </c>
       <c r="E2" s="6">
         <v>1.18739130434783</v>
       </c>
       <c r="F2" s="6">
-        <v>1.00724137931034</v>
+        <v>1.00161290322581</v>
       </c>
       <c r="G2" s="1">
         <v>42</v>
@@ -1423,13 +1423,13 @@
         <v>1.0773125</v>
       </c>
       <c r="D3" s="6">
-        <v>1.03237282608696</v>
+        <v>1.04184042857143</v>
       </c>
       <c r="E3" s="6">
         <v>1.43380952380952</v>
       </c>
       <c r="F3" s="6">
-        <v>1.00161290322581</v>
+        <v>1.004</v>
       </c>
       <c r="G3" s="1">
         <v>42.3</v>
@@ -1482,13 +1482,13 @@
         <v>1.08046052631579</v>
       </c>
       <c r="D4" s="6">
-        <v>1.04184042857143</v>
+        <v>1.00838055</v>
       </c>
       <c r="E4" s="6">
         <v>1.7775</v>
       </c>
       <c r="F4" s="6">
-        <v>1.004</v>
+        <v>1.00451612903226</v>
       </c>
       <c r="G4" s="1">
         <v>42.4</v>
@@ -1541,13 +1541,13 @@
         <v>1.14113636363636</v>
       </c>
       <c r="D5" s="6">
-        <v>1.00838055</v>
+        <v>1.0364900952381</v>
       </c>
       <c r="E5" s="6">
         <v>2.1152380952381</v>
       </c>
       <c r="F5" s="6">
-        <v>1.00451612903226</v>
+        <v>1.02566666666667</v>
       </c>
       <c r="G5" s="1">
         <v>41</v>
@@ -1600,13 +1600,13 @@
         <v>1.33392045454545</v>
       </c>
       <c r="D6" s="6">
-        <v>1.0364900952381</v>
+        <v>1.01520876190476</v>
       </c>
       <c r="E6" s="6">
         <v>2.0952380952381</v>
       </c>
       <c r="F6" s="6">
-        <v>1.02566666666667</v>
+        <v>1.26354838709677</v>
       </c>
       <c r="G6" s="1">
         <v>42.6</v>
@@ -1659,13 +1659,13 @@
         <v>1.53845238095238</v>
       </c>
       <c r="D7" s="6">
-        <v>1.01520876190476</v>
+        <v>1.00328013636364</v>
       </c>
       <c r="E7" s="6">
         <v>2.01590909090909</v>
       </c>
       <c r="F7" s="6">
-        <v>1.26354838709677</v>
+        <v>1.42935483870968</v>
       </c>
       <c r="G7" s="1">
         <v>41.3</v>
@@ -1718,13 +1718,13 @@
         <v>1.70662</v>
       </c>
       <c r="D8" s="6">
-        <v>1.00328013636364</v>
+        <v>1.02046704761905</v>
       </c>
       <c r="E8" s="6">
         <v>2.11666666666667</v>
       </c>
       <c r="F8" s="6">
-        <v>1.42935483870968</v>
+        <v>1.605</v>
       </c>
       <c r="G8" s="1">
         <v>40.8</v>
@@ -1777,13 +1777,13 @@
         <v>1.82961428571429</v>
       </c>
       <c r="D9" s="6">
-        <v>1.02046704761905</v>
+        <v>1.00016023809524</v>
       </c>
       <c r="E9" s="6">
         <v>2.228</v>
       </c>
       <c r="F9" s="6">
-        <v>1.605</v>
+        <v>1.76096774193548</v>
       </c>
       <c r="G9" s="1">
         <v>38.2</v>
@@ -1836,13 +1836,13 @@
         <v>2.0452</v>
       </c>
       <c r="D10" s="6">
-        <v>1.00016023809524</v>
+        <v>1.04117561904762</v>
       </c>
       <c r="E10" s="6">
         <v>2.5</v>
       </c>
       <c r="F10" s="6">
-        <v>1.76096774193548</v>
+        <v>1.932</v>
       </c>
       <c r="G10" s="1">
         <v>37.2</v>
@@ -1895,13 +1895,13 @@
         <v>2.29264952380952</v>
       </c>
       <c r="D11" s="6">
-        <v>1.04117561904762</v>
+        <v>1.06733840909091</v>
       </c>
       <c r="E11" s="6">
         <v>2.67045454545455</v>
       </c>
       <c r="F11" s="6">
-        <v>1.932</v>
+        <v>2.15612903225806</v>
       </c>
       <c r="G11" s="1">
         <v>37.3</v>
@@ -1954,13 +1954,13 @@
         <v>2.370594</v>
       </c>
       <c r="D12" s="6">
-        <v>1.06733840909091</v>
+        <v>1.0539513</v>
       </c>
       <c r="E12" s="6">
         <v>2.8605</v>
       </c>
       <c r="F12" s="6">
-        <v>2.15612903225806</v>
+        <v>2.27935483870968</v>
       </c>
       <c r="G12" s="1">
         <v>36</v>
@@ -2013,13 +2013,13 @@
         <v>2.570125</v>
       </c>
       <c r="D13" s="6">
-        <v>1.0539513</v>
+        <v>1.07238157894737</v>
       </c>
       <c r="E13" s="6">
         <v>3.02947368421053</v>
       </c>
       <c r="F13" s="6">
-        <v>2.27935483870968</v>
+        <v>2.50178571428571</v>
       </c>
       <c r="G13" s="1">
         <v>23.9</v>
@@ -2072,13 +2072,13 @@
         <v>2.70901809523809</v>
       </c>
       <c r="D14" s="6">
-        <v>1.07238157894737</v>
+        <v>1.06820931818182</v>
       </c>
       <c r="E14" s="6">
         <v>3.30227272727273</v>
       </c>
       <c r="F14" s="6">
-        <v>2.50178571428571</v>
+        <v>2.62903225806452</v>
       </c>
       <c r="G14" s="1">
         <v>8.3</v>
@@ -2131,13 +2131,13 @@
         <v>2.88417285714286</v>
       </c>
       <c r="D15" s="6">
-        <v>1.06820931818182</v>
+        <v>1.02831861904762</v>
       </c>
       <c r="E15" s="6">
         <v>3.31666666666667</v>
       </c>
       <c r="F15" s="6">
-        <v>2.62903225806452</v>
+        <v>2.785</v>
       </c>
       <c r="G15" s="1">
         <v>12.2</v>
@@ -2190,13 +2190,13 @@
         <v>3.063407</v>
       </c>
       <c r="D16" s="6">
-        <v>1.02831861904762</v>
+        <v>1.0377179047619</v>
       </c>
       <c r="E16" s="6">
         <v>3.33095238095238</v>
       </c>
       <c r="F16" s="6">
-        <v>2.785</v>
+        <v>3.00258064516129</v>
       </c>
       <c r="G16" s="1">
         <v>13.4</v>
@@ -2249,13 +2249,13 @@
         <v>3.14855136363636</v>
       </c>
       <c r="D17" s="6">
-        <v>1.0377179047619</v>
+        <v>1.04866822727273</v>
       </c>
       <c r="E17" s="6">
         <v>3.36318181818182</v>
       </c>
       <c r="F17" s="6">
-        <v>3.00258064516129</v>
+        <v>3.03566666666667</v>
       </c>
       <c r="G17" s="1">
         <v>13.7</v>
@@ -2308,13 +2308,13 @@
         <v>3.32474857142857</v>
       </c>
       <c r="D18" s="6">
-        <v>1.04866822727273</v>
+        <v>1.0545376</v>
       </c>
       <c r="E18" s="6">
         <v>3.641</v>
       </c>
       <c r="F18" s="6">
-        <v>3.03566666666667</v>
+        <v>3.26258064516129</v>
       </c>
       <c r="G18" s="1">
         <v>14</v>
@@ -2367,13 +2367,13 @@
         <v>3.544405</v>
       </c>
       <c r="D19" s="6">
-        <v>1.0545376</v>
+        <v>1.05542717391304</v>
       </c>
       <c r="E19" s="6">
         <v>3.87217391304348</v>
       </c>
       <c r="F19" s="6">
-        <v>3.26258064516129</v>
+        <v>3.49967741935484</v>
       </c>
       <c r="G19" s="1">
         <v>13.7</v>
@@ -2426,13 +2426,13 @@
         <v>3.721705</v>
       </c>
       <c r="D20" s="6">
-        <v>1.05542717391304</v>
+        <v>1.05325442857143</v>
       </c>
       <c r="E20" s="6">
         <v>3.8452380952381</v>
       </c>
       <c r="F20" s="6">
-        <v>3.49967741935484</v>
+        <v>3.623</v>
       </c>
       <c r="G20" s="1">
         <v>15</v>
@@ -2485,13 +2485,13 @@
         <v>3.88398857142857</v>
       </c>
       <c r="D21" s="6">
-        <v>1.05325442857143</v>
+        <v>1.03243133333333</v>
       </c>
       <c r="E21" s="6">
         <v>4.1755</v>
       </c>
       <c r="F21" s="6">
-        <v>3.623</v>
+        <v>3.77935483870968</v>
       </c>
       <c r="G21" s="1">
         <v>16</v>
@@ -2544,13 +2544,13 @@
         <v>4.06545545454545</v>
       </c>
       <c r="D22" s="6">
-        <v>1.03243133333333</v>
+        <v>1.06952495238095</v>
       </c>
       <c r="E22" s="6">
         <v>4.334</v>
       </c>
       <c r="F22" s="6">
-        <v>3.77935483870968</v>
+        <v>3.999</v>
       </c>
       <c r="G22" s="1">
         <v>16.7</v>
@@ -2603,13 +2603,13 @@
         <v>4.2973135</v>
       </c>
       <c r="D23" s="6">
-        <v>1.06952495238095</v>
+        <v>1.08277947619048</v>
       </c>
       <c r="E23" s="6">
         <v>4.35285714285714</v>
       </c>
       <c r="F23" s="6">
-        <v>3.999</v>
+        <v>4.15709677419355</v>
       </c>
       <c r="G23" s="1">
         <v>17.2</v>
@@ -2662,13 +2662,13 @@
         <v>4.38714476190476</v>
       </c>
       <c r="D24" s="6">
-        <v>1.08277947619048</v>
+        <v>1.0872482</v>
       </c>
       <c r="E24" s="6">
         <v>4.445</v>
       </c>
       <c r="F24" s="6">
-        <v>4.15709677419355</v>
+        <v>4.28516129032258</v>
       </c>
       <c r="G24" s="1">
         <v>17.6</v>
@@ -2721,13 +2721,13 @@
         <v>4.5581255</v>
       </c>
       <c r="D25" s="6">
-        <v>1.0872482</v>
+        <v>1.09711863157895</v>
       </c>
       <c r="E25" s="6">
         <v>4.68473684210526</v>
       </c>
       <c r="F25" s="6">
-        <v>4.28516129032258</v>
+        <v>4.49142857142857</v>
       </c>
       <c r="G25" s="1">
         <v>25.4</v>
@@ -2780,13 +2780,13 @@
         <v>4.67500130434783</v>
       </c>
       <c r="D26" s="6">
-        <v>1.09711863157895</v>
+        <v>1.114445</v>
       </c>
       <c r="E26" s="6">
         <v>4.77347826086957</v>
       </c>
       <c r="F26" s="6">
-        <v>4.49142857142857</v>
+        <v>4.58935483870968</v>
       </c>
       <c r="G26" s="1">
         <v>27.4</v>
@@ -2839,13 +2839,13 @@
         <v>4.83784944444444</v>
       </c>
       <c r="D27" s="6">
-        <v>1.114445</v>
+        <v>1.12346752631579</v>
       </c>
       <c r="E27" s="6">
         <v>4.89736842105263</v>
       </c>
       <c r="F27" s="6">
-        <v>4.58935483870968</v>
+        <v>4.79033333333333</v>
       </c>
       <c r="G27" s="1">
         <v>24.8</v>
@@ -2898,13 +2898,13 @@
         <v>5.05488333333333</v>
       </c>
       <c r="D28" s="6">
-        <v>1.12346752631579</v>
+        <v>1.13338781818182</v>
       </c>
       <c r="E28" s="6">
         <v>4.995</v>
       </c>
       <c r="F28" s="6">
-        <v>4.79033333333333</v>
+        <v>4.94032258064516</v>
       </c>
       <c r="G28" s="1">
         <v>22.1</v>
@@ -2957,13 +2957,13 @@
         <v>5.16934727272727</v>
       </c>
       <c r="D29" s="6">
-        <v>1.13338781818182</v>
+        <v>1.09979654545455</v>
       </c>
       <c r="E29" s="6">
         <v>5.155</v>
       </c>
       <c r="F29" s="6">
-        <v>4.94032258064516</v>
+        <v>4.991</v>
       </c>
       <c r="G29" s="1">
         <v>22</v>
@@ -3016,13 +3016,13 @@
         <v>5.31611714285714</v>
       </c>
       <c r="D30" s="6">
-        <v>1.09979654545455</v>
+        <v>1.1032526</v>
       </c>
       <c r="E30" s="6">
         <v>5.2175</v>
       </c>
       <c r="F30" s="6">
-        <v>4.991</v>
+        <v>5.23516129032258</v>
       </c>
       <c r="G30" s="1">
         <v>21.3</v>
@@ -3075,13 +3075,13 @@
         <v>5.32184863636364</v>
       </c>
       <c r="D31" s="6">
-        <v>1.1032526</v>
+        <v>1.12573539130435</v>
       </c>
       <c r="E31" s="6">
         <v>5.08260869565217</v>
       </c>
       <c r="F31" s="6">
-        <v>5.23516129032258</v>
+        <v>5.24645161290323</v>
       </c>
       <c r="G31" s="1">
         <v>21.1</v>
@@ -3134,13 +3134,13 @@
         <v>5.31157952380952</v>
       </c>
       <c r="D32" s="6">
-        <v>1.12573539130435</v>
+        <v>1.1533599</v>
       </c>
       <c r="E32" s="6">
         <v>4.9745</v>
       </c>
       <c r="F32" s="6">
-        <v>5.24645161290323</v>
+        <v>5.25466666666667</v>
       </c>
       <c r="G32" s="1">
         <v>21.6</v>
@@ -3193,13 +3193,13 @@
         <v>5.30523363636364</v>
       </c>
       <c r="D33" s="6">
-        <v>1.1533599</v>
+        <v>1.19631154545455</v>
       </c>
       <c r="E33" s="6">
         <v>5.01</v>
       </c>
       <c r="F33" s="6">
-        <v>5.25466666666667</v>
+        <v>5.24516129032258</v>
       </c>
       <c r="G33" s="1">
         <v>21.7</v>
@@ -3252,13 +3252,13 @@
         <v>5.30419318181818</v>
       </c>
       <c r="D34" s="6">
-        <v>1.19631154545455</v>
+        <v>1.21851542857143</v>
       </c>
       <c r="E34" s="6">
         <v>5.01095238095238</v>
       </c>
       <c r="F34" s="6">
-        <v>5.24516129032258</v>
+        <v>5.24566666666667</v>
       </c>
       <c r="G34" s="1">
         <v>20.9</v>
@@ -3311,13 +3311,13 @@
         <v>5.31394526315789</v>
       </c>
       <c r="D35" s="6">
-        <v>1.21851542857143</v>
+        <v>1.23776185</v>
       </c>
       <c r="E35" s="6">
         <v>4.9415</v>
       </c>
       <c r="F35" s="6">
-        <v>5.24566666666667</v>
+        <v>5.23806451612903</v>
       </c>
       <c r="G35" s="1">
         <v>20.6</v>
@@ -3370,13 +3370,13 @@
         <v>5.30517272727273</v>
       </c>
       <c r="D36" s="6">
-        <v>1.23776185</v>
+        <v>1.2512891</v>
       </c>
       <c r="E36" s="6">
         <v>5.05714285714286</v>
       </c>
       <c r="F36" s="6">
-        <v>5.23806451612903</v>
+        <v>5.24838709677419</v>
       </c>
       <c r="G36" s="1">
         <v>20</v>
@@ -3429,13 +3429,13 @@
         <v>5.305565</v>
       </c>
       <c r="D37" s="6">
-        <v>1.2512891</v>
+        <v>1.26314773684211</v>
       </c>
       <c r="E37" s="6">
         <v>5.05368421052632</v>
       </c>
       <c r="F37" s="6">
-        <v>5.24838709677419</v>
+        <v>5.25892857142857</v>
       </c>
       <c r="G37" s="1">
         <v>27.4345</v>
@@ -3488,13 +3488,13 @@
         <v>5.315865</v>
       </c>
       <c r="D38" s="6">
-        <v>1.26314773684211</v>
+        <v>1.22685336363636</v>
       </c>
       <c r="E38" s="6">
         <v>4.92045454545455</v>
       </c>
       <c r="F38" s="6">
-        <v>5.25892857142857</v>
+        <v>5.25677419354839</v>
       </c>
       <c r="G38" s="1">
         <v>20.4418</v>
@@ -3547,13 +3547,13 @@
         <v>5.31866157894737</v>
       </c>
       <c r="D39" s="6">
-        <v>1.22685336363636</v>
+        <v>1.2754804</v>
       </c>
       <c r="E39" s="6">
         <v>4.93238095238095</v>
       </c>
       <c r="F39" s="6">
-        <v>5.25677419354839</v>
+        <v>5.24966666666667</v>
       </c>
       <c r="G39" s="1">
         <v>18.2615</v>
@@ -3606,13 +3606,13 @@
         <v>5.3160319047619</v>
       </c>
       <c r="D40" s="6">
-        <v>1.2754804</v>
+        <v>1.34077563636364</v>
       </c>
       <c r="E40" s="6">
         <v>4.90909090909091</v>
       </c>
       <c r="F40" s="6">
-        <v>5.24966666666667</v>
+        <v>5.25354838709677</v>
       </c>
       <c r="G40" s="1">
         <v>19.1477</v>
@@ -3665,13 +3665,13 @@
         <v>5.32495285714286</v>
       </c>
       <c r="D41" s="6">
-        <v>1.34077563636364</v>
+        <v>1.34802123809524</v>
       </c>
       <c r="E41" s="6">
         <v>4.96238095238095</v>
       </c>
       <c r="F41" s="6">
-        <v>5.25354838709677</v>
+        <v>5.254</v>
       </c>
       <c r="G41" s="1">
         <v>19.182</v>
@@ -3724,13 +3724,13 @@
         <v>5.31710454545454</v>
       </c>
       <c r="D42" s="6">
-        <v>1.34802123809524</v>
+        <v>1.36778947619048</v>
       </c>
       <c r="E42" s="6">
         <v>4.96428571428571</v>
       </c>
       <c r="F42" s="6">
-        <v>5.254</v>
+        <v>5.25838709677419</v>
       </c>
       <c r="G42" s="1">
         <v>18.38</v>
@@ -3783,13 +3783,13 @@
         <v>5.49261409090909</v>
       </c>
       <c r="D43" s="6">
-        <v>1.36778947619048</v>
+        <v>1.3239712173913</v>
       </c>
       <c r="E43" s="6">
         <v>4.47217391304348</v>
       </c>
       <c r="F43" s="6">
-        <v>5.25838709677419</v>
+        <v>5.02225806451613</v>
       </c>
       <c r="G43" s="1">
         <v>19.6454</v>
@@ -3842,13 +3842,13 @@
         <v>5.3531565</v>
       </c>
       <c r="D44" s="6">
-        <v>1.3239712173913</v>
+        <v>1.35576863157895</v>
       </c>
       <c r="E44" s="6">
         <v>4.13684210526316</v>
       </c>
       <c r="F44" s="6">
-        <v>5.02225806451613</v>
+        <v>4.938</v>
       </c>
       <c r="G44" s="1">
         <v>19.65</v>
@@ -3901,13 +3901,13 @@
         <v>4.91540782608696</v>
       </c>
       <c r="D45" s="6">
-        <v>1.35576863157895</v>
+        <v>1.39012804347826</v>
       </c>
       <c r="E45" s="6">
         <v>4.09681818181818</v>
       </c>
       <c r="F45" s="6">
-        <v>4.938</v>
+        <v>4.75548387096774</v>
       </c>
       <c r="G45" s="1">
         <v>19.11</v>
@@ -3960,13 +3960,13 @@
         <v>4.71855136363636</v>
       </c>
       <c r="D46" s="6">
-        <v>1.39012804347826</v>
+        <v>1.32005776190476</v>
       </c>
       <c r="E46" s="6">
         <v>3.499</v>
       </c>
       <c r="F46" s="6">
-        <v>4.75548387096774</v>
+        <v>4.48666666666667</v>
       </c>
       <c r="G46" s="1">
         <v>19.73</v>
@@ -4019,13 +4019,13 @@
         <v>4.63447368421053</v>
       </c>
       <c r="D47" s="6">
-        <v>1.32005776190476</v>
+        <v>1.34069895</v>
       </c>
       <c r="E47" s="6">
         <v>3.263</v>
       </c>
       <c r="F47" s="6">
-        <v>4.48666666666667</v>
+        <v>4.24451612903226</v>
       </c>
       <c r="G47" s="1">
         <v>20.28</v>
@@ -4078,13 +4078,13 @@
         <v>4.02309681818182</v>
       </c>
       <c r="D48" s="6">
-        <v>1.34069895</v>
+        <v>1.25381223809524</v>
       </c>
       <c r="E48" s="6">
         <v>2.71142857142857</v>
       </c>
       <c r="F48" s="6">
-        <v>4.24451612903226</v>
+        <v>3.94032258064516</v>
       </c>
       <c r="G48" s="1">
         <v>20.76</v>
@@ -4137,13 +4137,13 @@
         <v>3.14348285714286</v>
       </c>
       <c r="D49" s="6">
-        <v>1.25381223809524</v>
+        <v>1.24195675</v>
       </c>
       <c r="E49" s="6">
         <v>2.0535</v>
       </c>
       <c r="F49" s="6">
-        <v>3.94032258064516</v>
+        <v>2.98068965517241</v>
       </c>
       <c r="G49" s="1">
         <v>27.65</v>
@@ -4196,13 +4196,13 @@
         <v>2.93503368421053</v>
       </c>
       <c r="D50" s="6">
-        <v>1.24195675</v>
+        <v>1.2193877</v>
       </c>
       <c r="E50" s="6">
         <v>1.544</v>
       </c>
       <c r="F50" s="6">
-        <v>2.98068965517241</v>
+        <v>2.61032258064516</v>
       </c>
       <c r="G50" s="1">
         <v>31.25</v>
@@ -4255,13 +4255,13 @@
         <v>2.80846409090909</v>
       </c>
       <c r="D51" s="6">
-        <v>1.2193877</v>
+        <v>1.26566327272727</v>
       </c>
       <c r="E51" s="6">
         <v>1.73818181818182</v>
       </c>
       <c r="F51" s="6">
-        <v>2.61032258064516</v>
+        <v>2.27833333333333</v>
       </c>
       <c r="G51" s="1">
         <v>28.93</v>
@@ -4314,13 +4314,13 @@
         <v>2.4175315</v>
       </c>
       <c r="D52" s="6">
-        <v>1.26566327272727</v>
+        <v>1.28124814285714</v>
       </c>
       <c r="E52" s="6">
         <v>2.05142857142857</v>
       </c>
       <c r="F52" s="6">
-        <v>2.27833333333333</v>
+        <v>1.97838709677419</v>
       </c>
       <c r="G52" s="1">
         <v>28.32</v>
@@ -4373,13 +4373,13 @@
         <v>2.42997047619048</v>
       </c>
       <c r="D53" s="6">
-        <v>1.28124814285714</v>
+        <v>1.20566652380952</v>
       </c>
       <c r="E53" s="6">
         <v>2.41952380952381</v>
       </c>
       <c r="F53" s="6">
-        <v>1.97838709677419</v>
+        <v>2.001</v>
       </c>
       <c r="G53" s="1">
         <v>30.79</v>
@@ -4432,13 +4432,13 @@
         <v>2.41926739130435</v>
       </c>
       <c r="D54" s="6">
-        <v>1.20566652380952</v>
+        <v>1.13223754545455</v>
       </c>
       <c r="E54" s="6">
         <v>2.28181818181818</v>
       </c>
       <c r="F54" s="6">
-        <v>2.001</v>
+        <v>2.00967741935484</v>
       </c>
       <c r="G54" s="1">
         <v>30.89</v>
@@ -4491,13 +4491,13 @@
         <v>2.4077825</v>
       </c>
       <c r="D55" s="6">
-        <v>1.13223754545455</v>
+        <v>1.15307461904762</v>
       </c>
       <c r="E55" s="6">
         <v>2.17714285714286</v>
       </c>
       <c r="F55" s="6">
-        <v>2.00967741935484</v>
+        <v>1.99645161290323</v>
       </c>
       <c r="G55" s="1">
         <v>31.34</v>
@@ -4550,13 +4550,13 @@
         <v>3.19599454545454</v>
       </c>
       <c r="D56" s="6">
-        <v>1.15307461904762</v>
+        <v>1.11140823809524</v>
       </c>
       <c r="E56" s="6">
         <v>1.91285714285714</v>
       </c>
       <c r="F56" s="6">
-        <v>1.99645161290323</v>
+        <v>1.81166666666667</v>
       </c>
       <c r="G56" s="1">
         <v>30.14</v>
@@ -4609,13 +4609,13 @@
         <v>3.23119565217391</v>
       </c>
       <c r="D57" s="6">
-        <v>1.11140823809524</v>
+        <v>0.917671434782609</v>
       </c>
       <c r="E57" s="6">
         <v>1.42045454545455</v>
       </c>
       <c r="F57" s="6">
-        <v>1.81166666666667</v>
+        <v>0.969354838709677</v>
       </c>
       <c r="G57" s="1">
         <v>28.97</v>
@@ -4668,13 +4668,13 @@
         <v>0.97575</v>
       </c>
       <c r="D58" s="6">
-        <v>0.917671434782609</v>
+        <v>0.861455421052632</v>
       </c>
       <c r="E58" s="6">
         <v>1.06666666666667</v>
       </c>
       <c r="F58" s="6">
-        <v>0.969354838709677</v>
+        <v>0.387666666666667</v>
       </c>
       <c r="G58" s="1">
         <v>27.53</v>
@@ -4727,13 +4727,13 @@
         <v>0.572172857142857</v>
       </c>
       <c r="D59" s="6">
-        <v>0.861455421052632</v>
+        <v>0.859556090909091</v>
       </c>
       <c r="E59" s="6">
         <v>0.494545454545455</v>
       </c>
       <c r="F59" s="6">
-        <v>0.387666666666667</v>
+        <v>0.155161290322581</v>
       </c>
       <c r="G59" s="1">
         <v>22.71</v>
@@ -4786,13 +4786,13 @@
         <v>0.276488571428571</v>
       </c>
       <c r="D60" s="6">
-        <v>0.859556090909091</v>
+        <v>0.83962015</v>
       </c>
       <c r="E60" s="6">
         <v>0.4445</v>
       </c>
       <c r="F60" s="6">
-        <v>0.155161290322581</v>
+        <v>0.154193548387097</v>
       </c>
       <c r="G60" s="1">
         <v>18.48</v>
@@ -4845,13 +4845,13 @@
         <v>0.3625315</v>
       </c>
       <c r="D61" s="6">
-        <v>0.83962015</v>
+        <v>0.769049631578947</v>
       </c>
       <c r="E61" s="6">
         <v>0.622631578947368</v>
       </c>
       <c r="F61" s="6">
-        <v>0.154193548387097</v>
+        <v>0.222142857142857</v>
       </c>
       <c r="G61" s="1">
         <v>-43.1</v>
@@ -4904,13 +4904,13 @@
         <v>0.413893181818182</v>
       </c>
       <c r="D62" s="6">
-        <v>0.769049631578947</v>
+        <v>0.723546636363636</v>
       </c>
       <c r="E62" s="6">
         <v>0.644090909090909</v>
       </c>
       <c r="F62" s="6">
-        <v>0.222142857142857</v>
+        <v>0.180645161290323</v>
       </c>
       <c r="G62" s="1">
         <v>-34.23</v>
@@ -4963,13 +4963,13 @@
         <v>0.3534385</v>
       </c>
       <c r="D63" s="6">
-        <v>0.723546636363636</v>
+        <v>0.799212142857143</v>
       </c>
       <c r="E63" s="6">
         <v>0.547619047619048</v>
       </c>
       <c r="F63" s="6">
-        <v>0.180645161290323</v>
+        <v>0.150333333333333</v>
       </c>
       <c r="G63" s="1">
         <v>-30.91</v>
@@ -5022,13 +5022,13 @@
         <v>0.295658947368421</v>
       </c>
       <c r="D64" s="6">
-        <v>0.799212142857143</v>
+        <v>0.83983685</v>
       </c>
       <c r="E64" s="6">
         <v>0.5015</v>
       </c>
       <c r="F64" s="6">
-        <v>0.150333333333333</v>
+        <v>0.17741935483871</v>
       </c>
       <c r="G64" s="1">
         <v>-28.67</v>
@@ -5081,13 +5081,13 @@
         <v>0.291394545454546</v>
       </c>
       <c r="D65" s="6">
-        <v>0.83983685</v>
+        <v>0.859299863636363</v>
       </c>
       <c r="E65" s="6">
         <v>0.513636363636364</v>
       </c>
       <c r="F65" s="6">
-        <v>0.17741935483871</v>
+        <v>0.206333333333333</v>
       </c>
       <c r="G65" s="1">
         <v>-27.86</v>
@@ -5140,13 +5140,13 @@
         <v>0.269377391304348</v>
       </c>
       <c r="D66" s="6">
-        <v>0.859299863636363</v>
+        <v>0.867974590909091</v>
       </c>
       <c r="E66" s="6">
         <v>0.478636363636364</v>
       </c>
       <c r="F66" s="6">
-        <v>0.206333333333333</v>
+        <v>0.155806451612903</v>
       </c>
       <c r="G66" s="1">
         <v>-25.22</v>
@@ -5199,13 +5199,13 @@
         <v>0.2576265</v>
       </c>
       <c r="D67" s="6">
-        <v>0.867974590909091</v>
+        <v>0.937506190476191</v>
       </c>
       <c r="E67" s="6">
         <v>0.459047619047619</v>
       </c>
       <c r="F67" s="6">
-        <v>0.155806451612903</v>
+        <v>0.160322580645161</v>
       </c>
       <c r="G67" s="1">
         <v>-23.48</v>
@@ -5258,13 +5258,13 @@
         <v>0.242866818181818</v>
       </c>
       <c r="D68" s="6">
-        <v>0.937506190476191</v>
+        <v>0.963497095238095</v>
       </c>
       <c r="E68" s="6">
         <v>0.404761904761905</v>
       </c>
       <c r="F68" s="6">
-        <v>0.160322580645161</v>
+        <v>0.146666666666667</v>
       </c>
       <c r="G68" s="1">
         <v>-22.57</v>
